--- a/data/trans_orig/P71_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880AB7C5-AC66-4950-B5A8-49450446F0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EF3E81-E3E2-49B7-9E11-3B9890EDCC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D5680F3-CADA-4FDC-AC94-731CE773975D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79ED9A44-5D02-450C-B1CA-C5E8293C2A59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2007 (Tasa respuesta: 98,33%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>29,96%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,04%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>59,89%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>77,52%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,745 +197,757 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2016 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>86,32%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CF19EF-4156-48A9-AA92-10CD083A5429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298D35D2-7EE8-410E-AE5A-6B50666748C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1811,13 +1823,13 @@
         <v>94187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1844,13 @@
         <v>509028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -1847,13 +1859,13 @@
         <v>413116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>882</v>
@@ -1862,13 +1874,13 @@
         <v>922144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1948,13 @@
         <v>584141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>885</v>
@@ -1951,13 +1963,13 @@
         <v>922333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1459</v>
@@ -1966,13 +1978,13 @@
         <v>1506475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1999,13 @@
         <v>2646688</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2349</v>
@@ -2002,13 +2014,13 @@
         <v>2392636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4943</v>
@@ -2017,13 +2029,13 @@
         <v>5039323</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC34C4C-857F-4D5E-B5D5-362F621100A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC5883-15BC-4258-8867-B8179BFD0B68}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2234,13 @@
         <v>394020</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>447</v>
@@ -2237,13 +2249,13 @@
         <v>483485</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>815</v>
@@ -2252,13 +2264,13 @@
         <v>877505</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2285,13 @@
         <v>574061</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>793</v>
@@ -2288,13 +2300,13 @@
         <v>846876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1327</v>
@@ -2303,13 +2315,13 @@
         <v>1420937</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2389,13 @@
         <v>590063</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>523</v>
@@ -2392,13 +2404,13 @@
         <v>567802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1079</v>
@@ -2407,13 +2419,13 @@
         <v>1157865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2440,13 @@
         <v>1368775</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1106</v>
@@ -2443,13 +2455,13 @@
         <v>1182784</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2401</v>
@@ -2458,13 +2470,13 @@
         <v>2551559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2544,13 @@
         <v>58096</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -2547,13 +2559,13 @@
         <v>67532</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -2562,13 +2574,13 @@
         <v>125628</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>417133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>351</v>
@@ -2598,13 +2610,13 @@
         <v>390164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>732</v>
@@ -2613,13 +2625,13 @@
         <v>807297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2699,13 @@
         <v>1042178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1030</v>
@@ -2702,13 +2714,13 @@
         <v>1118820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2006</v>
@@ -2717,13 +2729,13 @@
         <v>2160998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>2359970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2250</v>
@@ -2753,13 +2765,13 @@
         <v>2419823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4460</v>
@@ -2768,13 +2780,13 @@
         <v>4779793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46136A32-3CCC-4D60-B7B7-44D684358D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EF86C1-23B7-4DF1-B421-4710D51CD629}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2985,13 @@
         <v>354723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>448</v>
@@ -2988,13 +3000,13 @@
         <v>493047</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>800</v>
@@ -3003,13 +3015,13 @@
         <v>847771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3036,13 @@
         <v>392575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>439</v>
@@ -3039,13 +3051,13 @@
         <v>495423</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>842</v>
@@ -3054,13 +3066,13 @@
         <v>887998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3140,13 @@
         <v>705630</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>662</v>
@@ -3143,28 +3155,28 @@
         <v>686457</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1316</v>
       </c>
       <c r="N7" s="7">
-        <v>1392088</v>
+        <v>1392087</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3191,13 @@
         <v>1352642</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1236</v>
@@ -3194,13 +3206,13 @@
         <v>1291347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2517</v>
@@ -3209,13 +3221,13 @@
         <v>2643989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,7 +3269,7 @@
         <v>3833</v>
       </c>
       <c r="N9" s="7">
-        <v>4036077</v>
+        <v>4036076</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3283,13 +3295,13 @@
         <v>59179</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -3298,13 +3310,13 @@
         <v>76978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -3313,13 +3325,13 @@
         <v>136157</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3346,13 @@
         <v>485800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>450</v>
@@ -3349,13 +3361,13 @@
         <v>471098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>897</v>
@@ -3364,13 +3376,13 @@
         <v>956898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3450,13 @@
         <v>1119533</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1185</v>
@@ -3453,13 +3465,13 @@
         <v>1256483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>2243</v>
@@ -3468,13 +3480,13 @@
         <v>2376015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3501,13 @@
         <v>2231017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2125</v>
@@ -3504,28 +3516,28 @@
         <v>2257868</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4256</v>
       </c>
       <c r="N14" s="7">
-        <v>4488886</v>
+        <v>4488885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3579,7 @@
         <v>6499</v>
       </c>
       <c r="N15" s="7">
-        <v>6864901</v>
+        <v>6864900</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3581,7 +3593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ADF1FD-3655-4BBB-94ED-188D64FDC814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CEC9AB-0CD8-4BC8-A07B-9BD8247C6CB9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3736,13 @@
         <v>145590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>373</v>
@@ -3739,13 +3751,13 @@
         <v>225644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>546</v>
@@ -3754,13 +3766,13 @@
         <v>371234</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3787,13 @@
         <v>385103</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>1030</v>
@@ -3790,13 +3802,13 @@
         <v>596697</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>1536</v>
@@ -3805,13 +3817,13 @@
         <v>981800</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3891,13 @@
         <v>278833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
@@ -3894,13 +3906,13 @@
         <v>345300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>701</v>
@@ -3909,13 +3921,13 @@
         <v>624133</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3942,13 @@
         <v>1857999</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2465</v>
@@ -3945,13 +3957,13 @@
         <v>1882119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4177</v>
@@ -3960,13 +3972,13 @@
         <v>3740117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>18120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -4049,13 +4061,13 @@
         <v>37121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4064,13 +4076,13 @@
         <v>55241</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4097,13 @@
         <v>651161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>942</v>
@@ -4100,13 +4112,13 @@
         <v>666448</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1601</v>
@@ -4115,13 +4127,13 @@
         <v>1317609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4201,13 @@
         <v>442544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>861</v>
@@ -4204,13 +4216,13 @@
         <v>608065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>1316</v>
@@ -4219,13 +4231,13 @@
         <v>1050609</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,28 +4252,28 @@
         <v>2894261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>4437</v>
       </c>
       <c r="I14" s="7">
-        <v>3145264</v>
+        <v>3145263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>7314</v>
@@ -4270,13 +4282,13 @@
         <v>6039525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4315,7 @@
         <v>5298</v>
       </c>
       <c r="I15" s="7">
-        <v>3753329</v>
+        <v>3753328</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4332,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P71_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EF3E81-E3E2-49B7-9E11-3B9890EDCC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058A063B-D9A7-4573-A3A2-DCAB02F5F987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79ED9A44-5D02-450C-B1CA-C5E8293C2A59}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{87AC51DD-9973-472E-A503-AC721D22BA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -746,208 +746,208 @@
     <t>Población que llega a fin de mes con dificultad o mucha dificultad en 2023 (Tasa respuesta: 98,92%)</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298D35D2-7EE8-410E-AE5A-6B50666748C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1FB013-71D7-47D0-A792-387B44C0AE55}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1665,7 +1665,7 @@
         <v>569</v>
       </c>
       <c r="N7" s="7">
-        <v>594882</v>
+        <v>594883</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1767,7 +1767,7 @@
         <v>3158</v>
       </c>
       <c r="N9" s="7">
-        <v>3235750</v>
+        <v>3235751</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC5883-15BC-4258-8867-B8179BFD0B68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF36FBB-F7E5-4CD5-B052-94E1088033D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EF86C1-23B7-4DF1-B421-4710D51CD629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAAA178-F0A5-41EE-9B9E-BD1A0A8655D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3167,7 +3167,7 @@
         <v>1316</v>
       </c>
       <c r="N7" s="7">
-        <v>1392087</v>
+        <v>1392088</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>186</v>
@@ -3269,7 +3269,7 @@
         <v>3833</v>
       </c>
       <c r="N9" s="7">
-        <v>4036076</v>
+        <v>4036077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3528,7 +3528,7 @@
         <v>4256</v>
       </c>
       <c r="N14" s="7">
-        <v>4488885</v>
+        <v>4488886</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>231</v>
@@ -3579,7 +3579,7 @@
         <v>6499</v>
       </c>
       <c r="N15" s="7">
-        <v>6864900</v>
+        <v>6864901</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CEC9AB-0CD8-4BC8-A07B-9BD8247C6CB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AC06E3-40FD-4250-97DD-E7B29592CADF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3733,7 @@
         <v>173</v>
       </c>
       <c r="D4" s="7">
-        <v>145590</v>
+        <v>135238</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>235</v>
@@ -3748,7 +3748,7 @@
         <v>373</v>
       </c>
       <c r="I4" s="7">
-        <v>225644</v>
+        <v>202715</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>238</v>
@@ -3763,16 +3763,16 @@
         <v>546</v>
       </c>
       <c r="N4" s="7">
-        <v>371234</v>
+        <v>337953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,46 +3784,46 @@
         <v>506</v>
       </c>
       <c r="D5" s="7">
-        <v>385103</v>
+        <v>369407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>1030</v>
       </c>
       <c r="I5" s="7">
-        <v>596697</v>
+        <v>540327</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>1536</v>
       </c>
       <c r="N5" s="7">
-        <v>981800</v>
+        <v>909734</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
         <v>679</v>
       </c>
       <c r="D6" s="7">
-        <v>530693</v>
+        <v>504645</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
         <v>1403</v>
       </c>
       <c r="I6" s="7">
-        <v>822341</v>
+        <v>743042</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3865,7 @@
         <v>2082</v>
       </c>
       <c r="N6" s="7">
-        <v>1353034</v>
+        <v>1247687</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,46 +3888,46 @@
         <v>263</v>
       </c>
       <c r="D7" s="7">
-        <v>278833</v>
+        <v>262032</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
       </c>
       <c r="I7" s="7">
-        <v>345300</v>
+        <v>371002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>701</v>
       </c>
       <c r="N7" s="7">
-        <v>624133</v>
+        <v>633035</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3939,13 @@
         <v>1712</v>
       </c>
       <c r="D8" s="7">
-        <v>1857999</v>
+        <v>2000124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>262</v>
@@ -3954,7 +3954,7 @@
         <v>2465</v>
       </c>
       <c r="I8" s="7">
-        <v>1882119</v>
+        <v>1822569</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3969,7 +3969,7 @@
         <v>4177</v>
       </c>
       <c r="N8" s="7">
-        <v>3740117</v>
+        <v>3822693</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3990,7 +3990,7 @@
         <v>1975</v>
       </c>
       <c r="D9" s="7">
-        <v>2136832</v>
+        <v>2262156</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         <v>2903</v>
       </c>
       <c r="I9" s="7">
-        <v>2227419</v>
+        <v>2193571</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4020,7 @@
         <v>4878</v>
       </c>
       <c r="N9" s="7">
-        <v>4364250</v>
+        <v>4455728</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4043,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>18120</v>
+        <v>17128</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4058,7 +4058,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>37121</v>
+        <v>33851</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4073,7 +4073,7 @@
         <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>55241</v>
+        <v>50979</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4082,7 +4082,7 @@
         <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,46 +4094,46 @@
         <v>659</v>
       </c>
       <c r="D11" s="7">
-        <v>651161</v>
+        <v>625690</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>942</v>
       </c>
       <c r="I11" s="7">
-        <v>666448</v>
+        <v>617247</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1601</v>
       </c>
       <c r="N11" s="7">
-        <v>1317609</v>
+        <v>1242937</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>678</v>
       </c>
       <c r="D12" s="7">
-        <v>669281</v>
+        <v>642818</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4160,7 @@
         <v>992</v>
       </c>
       <c r="I12" s="7">
-        <v>703569</v>
+        <v>651098</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>1670</v>
       </c>
       <c r="N12" s="7">
-        <v>1372850</v>
+        <v>1293916</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,46 +4198,46 @@
         <v>455</v>
       </c>
       <c r="D13" s="7">
-        <v>442544</v>
+        <v>414398</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>861</v>
       </c>
       <c r="I13" s="7">
-        <v>608065</v>
+        <v>607568</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>1316</v>
       </c>
       <c r="N13" s="7">
-        <v>1050609</v>
+        <v>1021966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,40 +4249,40 @@
         <v>2877</v>
       </c>
       <c r="D14" s="7">
-        <v>2894261</v>
+        <v>2995222</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>4437</v>
       </c>
       <c r="I14" s="7">
-        <v>3145263</v>
+        <v>2980144</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>7314</v>
       </c>
       <c r="N14" s="7">
-        <v>6039525</v>
+        <v>5975365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>301</v>
@@ -4300,7 +4300,7 @@
         <v>3332</v>
       </c>
       <c r="D15" s="7">
-        <v>3336805</v>
+        <v>3409620</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4315,7 @@
         <v>5298</v>
       </c>
       <c r="I15" s="7">
-        <v>3753328</v>
+        <v>3587712</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4330,7 @@
         <v>8630</v>
       </c>
       <c r="N15" s="7">
-        <v>7090134</v>
+        <v>6997331</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
